--- a/MethodDemos/output/statistics/pdfx-PAGE_FROM.xlsx
+++ b/MethodDemos/output/statistics/pdfx-PAGE_FROM.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="104">
   <si>
     <t>TUW-137078</t>
   </si>
@@ -360,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="702">
+  <cellXfs count="705">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
@@ -668,342 +668,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="top"/>
     </xf>
@@ -1196,182 +860,527 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
@@ -2907,33 +2916,33 @@
       <c r="D15" s="102">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-140308-xstream.xml")</f>
       </c>
-      <c r="E15" t="s">
-        <v>1</v>
+      <c r="E15" t="n" s="103">
+        <v>159.0</v>
       </c>
       <c r="F15" t="s">
         <v>1</v>
       </c>
-      <c r="G15" t="s" s="103">
-        <v>2</v>
-      </c>
-      <c r="H15" t="s" s="104">
-        <v>3</v>
-      </c>
-      <c r="I15" t="s" s="105">
-        <v>4</v>
+      <c r="G15" t="s" s="104">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n" s="105">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n" s="106">
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="106">
+      <c r="A16" t="s" s="107">
         <v>19</v>
       </c>
-      <c r="B16" s="107">
+      <c r="B16" s="108">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140533.pdf")</f>
       </c>
-      <c r="C16" s="108">
+      <c r="C16" s="109">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-140533-xstream.xml")</f>
       </c>
-      <c r="D16" s="109">
+      <c r="D16" s="110">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-140533-xstream.xml")</f>
       </c>
       <c r="E16" t="s">
@@ -2942,27 +2951,27 @@
       <c r="F16" t="s">
         <v>1</v>
       </c>
-      <c r="G16" t="s" s="110">
-        <v>2</v>
-      </c>
-      <c r="H16" t="s" s="111">
-        <v>3</v>
-      </c>
-      <c r="I16" t="s" s="112">
+      <c r="G16" t="s" s="111">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s" s="112">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s" s="113">
         <v>4</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="113">
+      <c r="A17" t="s" s="114">
         <v>20</v>
       </c>
-      <c r="B17" s="114">
+      <c r="B17" s="115">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140867.pdf")</f>
       </c>
-      <c r="C17" s="115">
+      <c r="C17" s="116">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-140867-xstream.xml")</f>
       </c>
-      <c r="D17" s="116">
+      <c r="D17" s="117">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-140867-xstream.xml")</f>
       </c>
       <c r="E17" t="s">
@@ -2971,27 +2980,27 @@
       <c r="F17" t="s">
         <v>1</v>
       </c>
-      <c r="G17" t="s" s="117">
-        <v>2</v>
-      </c>
-      <c r="H17" t="s" s="118">
-        <v>3</v>
-      </c>
-      <c r="I17" t="s" s="119">
+      <c r="G17" t="s" s="118">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s" s="119">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s" s="120">
         <v>4</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="120">
+      <c r="A18" t="s" s="121">
         <v>21</v>
       </c>
-      <c r="B18" s="121">
+      <c r="B18" s="122">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140895.pdf")</f>
       </c>
-      <c r="C18" s="122">
+      <c r="C18" s="123">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-140895-xstream.xml")</f>
       </c>
-      <c r="D18" s="123">
+      <c r="D18" s="124">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-140895-xstream.xml")</f>
       </c>
       <c r="E18" t="s">
@@ -3000,27 +3009,27 @@
       <c r="F18" t="s">
         <v>1</v>
       </c>
-      <c r="G18" t="s" s="124">
-        <v>2</v>
-      </c>
-      <c r="H18" t="s" s="125">
-        <v>3</v>
-      </c>
-      <c r="I18" t="s" s="126">
+      <c r="G18" t="s" s="125">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s" s="126">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s" s="127">
         <v>4</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="127">
+      <c r="A19" t="s" s="128">
         <v>22</v>
       </c>
-      <c r="B19" s="128">
+      <c r="B19" s="129">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-140983.pdf")</f>
       </c>
-      <c r="C19" s="129">
+      <c r="C19" s="130">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-140983-xstream.xml")</f>
       </c>
-      <c r="D19" s="130">
+      <c r="D19" s="131">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-140983-xstream.xml")</f>
       </c>
       <c r="E19" t="s">
@@ -3029,27 +3038,27 @@
       <c r="F19" t="s">
         <v>1</v>
       </c>
-      <c r="G19" t="s" s="131">
-        <v>2</v>
-      </c>
-      <c r="H19" t="s" s="132">
-        <v>3</v>
-      </c>
-      <c r="I19" t="s" s="133">
+      <c r="G19" t="s" s="132">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s" s="133">
+        <v>3</v>
+      </c>
+      <c r="I19" t="s" s="134">
         <v>4</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="134">
+      <c r="A20" t="s" s="135">
         <v>23</v>
       </c>
-      <c r="B20" s="135">
+      <c r="B20" s="136">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141024.pdf")</f>
       </c>
-      <c r="C20" s="136">
+      <c r="C20" s="137">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-141024-xstream.xml")</f>
       </c>
-      <c r="D20" s="137">
+      <c r="D20" s="138">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-141024-xstream.xml")</f>
       </c>
       <c r="E20" t="s">
@@ -3058,27 +3067,27 @@
       <c r="F20" t="s">
         <v>1</v>
       </c>
-      <c r="G20" t="s" s="138">
-        <v>2</v>
-      </c>
-      <c r="H20" t="s" s="139">
-        <v>3</v>
-      </c>
-      <c r="I20" t="s" s="140">
+      <c r="G20" t="s" s="139">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s" s="140">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s" s="141">
         <v>4</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="141">
+      <c r="A21" t="s" s="142">
         <v>24</v>
       </c>
-      <c r="B21" s="142">
+      <c r="B21" s="143">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141065.pdf")</f>
       </c>
-      <c r="C21" s="143">
+      <c r="C21" s="144">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-141065-xstream.xml")</f>
       </c>
-      <c r="D21" s="144">
+      <c r="D21" s="145">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-141065-xstream.xml")</f>
       </c>
       <c r="E21" t="s">
@@ -3087,27 +3096,27 @@
       <c r="F21" t="s">
         <v>1</v>
       </c>
-      <c r="G21" t="s" s="145">
-        <v>2</v>
-      </c>
-      <c r="H21" t="s" s="146">
-        <v>3</v>
-      </c>
-      <c r="I21" t="s" s="147">
+      <c r="G21" t="s" s="146">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s" s="147">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s" s="148">
         <v>4</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="148">
+      <c r="A22" t="s" s="149">
         <v>25</v>
       </c>
-      <c r="B22" s="149">
+      <c r="B22" s="150">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141121.pdf")</f>
       </c>
-      <c r="C22" s="150">
+      <c r="C22" s="151">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-141121-xstream.xml")</f>
       </c>
-      <c r="D22" s="151">
+      <c r="D22" s="152">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-141121-xstream.xml")</f>
       </c>
       <c r="E22" t="s">
@@ -3116,27 +3125,27 @@
       <c r="F22" t="s">
         <v>1</v>
       </c>
-      <c r="G22" t="s" s="152">
-        <v>2</v>
-      </c>
-      <c r="H22" t="s" s="153">
-        <v>3</v>
-      </c>
-      <c r="I22" t="s" s="154">
+      <c r="G22" t="s" s="153">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s" s="154">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s" s="155">
         <v>4</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="155">
+      <c r="A23" t="s" s="156">
         <v>26</v>
       </c>
-      <c r="B23" s="156">
+      <c r="B23" s="157">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141140.pdf")</f>
       </c>
-      <c r="C23" s="157">
+      <c r="C23" s="158">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-141140-xstream.xml")</f>
       </c>
-      <c r="D23" s="158">
+      <c r="D23" s="159">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-141140-xstream.xml")</f>
       </c>
       <c r="E23" t="s">
@@ -3145,56 +3154,56 @@
       <c r="F23" t="s">
         <v>1</v>
       </c>
-      <c r="G23" t="s" s="159">
-        <v>2</v>
-      </c>
-      <c r="H23" t="s" s="160">
-        <v>3</v>
-      </c>
-      <c r="I23" t="s" s="161">
+      <c r="G23" t="s" s="160">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s" s="161">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s" s="162">
         <v>4</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="162">
+      <c r="A24" t="s" s="163">
         <v>27</v>
       </c>
-      <c r="B24" s="163">
+      <c r="B24" s="164">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141336.pdf")</f>
       </c>
-      <c r="C24" s="164">
+      <c r="C24" s="165">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-141336-xstream.xml")</f>
       </c>
-      <c r="D24" s="165">
+      <c r="D24" s="166">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-141336-xstream.xml")</f>
       </c>
-      <c r="E24" t="s">
-        <v>1</v>
+      <c r="E24" t="n" s="167">
+        <v>1.0</v>
       </c>
       <c r="F24" t="s">
         <v>1</v>
       </c>
-      <c r="G24" t="s" s="166">
-        <v>2</v>
-      </c>
-      <c r="H24" t="s" s="167">
-        <v>3</v>
-      </c>
-      <c r="I24" t="s" s="168">
-        <v>4</v>
+      <c r="G24" t="s" s="168">
+        <v>2</v>
+      </c>
+      <c r="H24" t="n" s="169">
+        <v>0.0</v>
+      </c>
+      <c r="I24" t="n" s="170">
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="169">
+      <c r="A25" t="s" s="171">
         <v>28</v>
       </c>
-      <c r="B25" s="170">
+      <c r="B25" s="172">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141618.pdf")</f>
       </c>
-      <c r="C25" s="171">
+      <c r="C25" s="173">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-141618-xstream.xml")</f>
       </c>
-      <c r="D25" s="172">
+      <c r="D25" s="174">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-141618-xstream.xml")</f>
       </c>
       <c r="E25" t="s">
@@ -3203,27 +3212,27 @@
       <c r="F25" t="s">
         <v>1</v>
       </c>
-      <c r="G25" t="s" s="173">
-        <v>2</v>
-      </c>
-      <c r="H25" t="s" s="174">
-        <v>3</v>
-      </c>
-      <c r="I25" t="s" s="175">
+      <c r="G25" t="s" s="175">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s" s="176">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s" s="177">
         <v>4</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="176">
+      <c r="A26" t="s" s="178">
         <v>29</v>
       </c>
-      <c r="B26" s="177">
+      <c r="B26" s="179">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-141758.pdf")</f>
       </c>
-      <c r="C26" s="178">
+      <c r="C26" s="180">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-141758-xstream.xml")</f>
       </c>
-      <c r="D26" s="179">
+      <c r="D26" s="181">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-141758-xstream.xml")</f>
       </c>
       <c r="E26" t="s">
@@ -3232,27 +3241,27 @@
       <c r="F26" t="s">
         <v>1</v>
       </c>
-      <c r="G26" t="s" s="180">
-        <v>2</v>
-      </c>
-      <c r="H26" t="s" s="181">
-        <v>3</v>
-      </c>
-      <c r="I26" t="s" s="182">
+      <c r="G26" t="s" s="182">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s" s="183">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s" s="184">
         <v>4</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="183">
+      <c r="A27" t="s" s="185">
         <v>30</v>
       </c>
-      <c r="B27" s="184">
+      <c r="B27" s="186">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-168222.pdf")</f>
       </c>
-      <c r="C27" s="185">
+      <c r="C27" s="187">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-168222-xstream.xml")</f>
       </c>
-      <c r="D27" s="186">
+      <c r="D27" s="188">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-168222-xstream.xml")</f>
       </c>
       <c r="E27" t="s">
@@ -3261,27 +3270,27 @@
       <c r="F27" t="s">
         <v>1</v>
       </c>
-      <c r="G27" t="s" s="187">
-        <v>2</v>
-      </c>
-      <c r="H27" t="s" s="188">
-        <v>3</v>
-      </c>
-      <c r="I27" t="s" s="189">
+      <c r="G27" t="s" s="189">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s" s="190">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s" s="191">
         <v>4</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="190">
+      <c r="A28" t="s" s="192">
         <v>31</v>
       </c>
-      <c r="B28" s="191">
+      <c r="B28" s="193">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-168482.pdf")</f>
       </c>
-      <c r="C28" s="192">
+      <c r="C28" s="194">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-168482-xstream.xml")</f>
       </c>
-      <c r="D28" s="193">
+      <c r="D28" s="195">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-168482-xstream.xml")</f>
       </c>
       <c r="E28" t="s">
@@ -3290,27 +3299,27 @@
       <c r="F28" t="s">
         <v>1</v>
       </c>
-      <c r="G28" t="s" s="194">
-        <v>2</v>
-      </c>
-      <c r="H28" t="s" s="195">
-        <v>3</v>
-      </c>
-      <c r="I28" t="s" s="196">
+      <c r="G28" t="s" s="196">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s" s="197">
+        <v>3</v>
+      </c>
+      <c r="I28" t="s" s="198">
         <v>4</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="197">
+      <c r="A29" t="s" s="199">
         <v>32</v>
       </c>
-      <c r="B29" s="198">
+      <c r="B29" s="200">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-169511.pdf")</f>
       </c>
-      <c r="C29" s="199">
+      <c r="C29" s="201">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-169511-xstream.xml")</f>
       </c>
-      <c r="D29" s="200">
+      <c r="D29" s="202">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-169511-xstream.xml")</f>
       </c>
       <c r="E29" t="s">
@@ -3319,27 +3328,27 @@
       <c r="F29" t="s">
         <v>1</v>
       </c>
-      <c r="G29" t="s" s="201">
-        <v>2</v>
-      </c>
-      <c r="H29" t="s" s="202">
-        <v>3</v>
-      </c>
-      <c r="I29" t="s" s="203">
+      <c r="G29" t="s" s="203">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s" s="204">
+        <v>3</v>
+      </c>
+      <c r="I29" t="s" s="205">
         <v>4</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="204">
+      <c r="A30" t="s" s="206">
         <v>33</v>
       </c>
-      <c r="B30" s="205">
+      <c r="B30" s="207">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-172697.pdf")</f>
       </c>
-      <c r="C30" s="206">
+      <c r="C30" s="208">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-172697-xstream.xml")</f>
       </c>
-      <c r="D30" s="207">
+      <c r="D30" s="209">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-172697-xstream.xml")</f>
       </c>
       <c r="E30" t="s">
@@ -3348,56 +3357,56 @@
       <c r="F30" t="s">
         <v>1</v>
       </c>
-      <c r="G30" t="s" s="208">
-        <v>2</v>
-      </c>
-      <c r="H30" t="s" s="209">
-        <v>3</v>
-      </c>
-      <c r="I30" t="s" s="210">
+      <c r="G30" t="s" s="210">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s" s="211">
+        <v>3</v>
+      </c>
+      <c r="I30" t="s" s="212">
         <v>4</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="211">
+      <c r="A31" t="s" s="213">
         <v>34</v>
       </c>
-      <c r="B31" s="212">
+      <c r="B31" s="214">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-174216.pdf")</f>
       </c>
-      <c r="C31" s="213">
+      <c r="C31" s="215">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-174216-xstream.xml")</f>
       </c>
-      <c r="D31" s="214">
+      <c r="D31" s="216">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-174216-xstream.xml")</f>
       </c>
-      <c r="E31" t="n" s="215">
+      <c r="E31" t="n" s="217">
         <v>2936.0</v>
       </c>
       <c r="F31" t="s">
         <v>1</v>
       </c>
-      <c r="G31" t="s" s="216">
-        <v>2</v>
-      </c>
-      <c r="H31" t="n" s="217">
+      <c r="G31" t="s" s="218">
+        <v>2</v>
+      </c>
+      <c r="H31" t="n" s="219">
         <v>0.0</v>
       </c>
-      <c r="I31" t="n" s="218">
+      <c r="I31" t="n" s="220">
         <v>0.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="219">
+      <c r="A32" t="s" s="221">
         <v>35</v>
       </c>
-      <c r="B32" s="220">
+      <c r="B32" s="222">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-175428.pdf")</f>
       </c>
-      <c r="C32" s="221">
+      <c r="C32" s="223">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-175428-xstream.xml")</f>
       </c>
-      <c r="D32" s="222">
+      <c r="D32" s="224">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-175428-xstream.xml")</f>
       </c>
       <c r="E32" t="s">
@@ -3406,27 +3415,27 @@
       <c r="F32" t="s">
         <v>1</v>
       </c>
-      <c r="G32" t="s" s="223">
-        <v>2</v>
-      </c>
-      <c r="H32" t="s" s="224">
-        <v>3</v>
-      </c>
-      <c r="I32" t="s" s="225">
+      <c r="G32" t="s" s="225">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s" s="226">
+        <v>3</v>
+      </c>
+      <c r="I32" t="s" s="227">
         <v>4</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="226">
+      <c r="A33" t="s" s="228">
         <v>36</v>
       </c>
-      <c r="B33" s="227">
+      <c r="B33" s="229">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-176087.pdf")</f>
       </c>
-      <c r="C33" s="228">
+      <c r="C33" s="230">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-176087-xstream.xml")</f>
       </c>
-      <c r="D33" s="229">
+      <c r="D33" s="231">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-176087-xstream.xml")</f>
       </c>
       <c r="E33" t="s">
@@ -3435,27 +3444,27 @@
       <c r="F33" t="s">
         <v>1</v>
       </c>
-      <c r="G33" t="s" s="230">
-        <v>2</v>
-      </c>
-      <c r="H33" t="s" s="231">
-        <v>3</v>
-      </c>
-      <c r="I33" t="s" s="232">
+      <c r="G33" t="s" s="232">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s" s="233">
+        <v>3</v>
+      </c>
+      <c r="I33" t="s" s="234">
         <v>4</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="233">
+      <c r="A34" t="s" s="235">
         <v>37</v>
       </c>
-      <c r="B34" s="234">
+      <c r="B34" s="236">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-177140.pdf")</f>
       </c>
-      <c r="C34" s="235">
+      <c r="C34" s="237">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-177140-xstream.xml")</f>
       </c>
-      <c r="D34" s="236">
+      <c r="D34" s="238">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-177140-xstream.xml")</f>
       </c>
       <c r="E34" t="s">
@@ -3464,27 +3473,27 @@
       <c r="F34" t="s">
         <v>1</v>
       </c>
-      <c r="G34" t="s" s="237">
-        <v>2</v>
-      </c>
-      <c r="H34" t="s" s="238">
-        <v>3</v>
-      </c>
-      <c r="I34" t="s" s="239">
+      <c r="G34" t="s" s="239">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s" s="240">
+        <v>3</v>
+      </c>
+      <c r="I34" t="s" s="241">
         <v>4</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="240">
+      <c r="A35" t="s" s="242">
         <v>38</v>
       </c>
-      <c r="B35" s="241">
+      <c r="B35" s="243">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-179146.pdf")</f>
       </c>
-      <c r="C35" s="242">
+      <c r="C35" s="244">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-179146-xstream.xml")</f>
       </c>
-      <c r="D35" s="243">
+      <c r="D35" s="245">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-179146-xstream.xml")</f>
       </c>
       <c r="E35" t="s">
@@ -3493,27 +3502,27 @@
       <c r="F35" t="s">
         <v>1</v>
       </c>
-      <c r="G35" t="s" s="244">
-        <v>2</v>
-      </c>
-      <c r="H35" t="s" s="245">
-        <v>3</v>
-      </c>
-      <c r="I35" t="s" s="246">
+      <c r="G35" t="s" s="246">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s" s="247">
+        <v>3</v>
+      </c>
+      <c r="I35" t="s" s="248">
         <v>4</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="247">
+      <c r="A36" t="s" s="249">
         <v>39</v>
       </c>
-      <c r="B36" s="248">
+      <c r="B36" s="250">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-180162.pdf")</f>
       </c>
-      <c r="C36" s="249">
+      <c r="C36" s="251">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-180162-xstream.xml")</f>
       </c>
-      <c r="D36" s="250">
+      <c r="D36" s="252">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-180162-xstream.xml")</f>
       </c>
       <c r="E36" t="s">
@@ -3522,27 +3531,27 @@
       <c r="F36" t="s">
         <v>1</v>
       </c>
-      <c r="G36" t="s" s="251">
-        <v>2</v>
-      </c>
-      <c r="H36" t="s" s="252">
-        <v>3</v>
-      </c>
-      <c r="I36" t="s" s="253">
+      <c r="G36" t="s" s="253">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s" s="254">
+        <v>3</v>
+      </c>
+      <c r="I36" t="s" s="255">
         <v>4</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="254">
+      <c r="A37" t="s" s="256">
         <v>40</v>
       </c>
-      <c r="B37" s="255">
+      <c r="B37" s="257">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-181199.pdf")</f>
       </c>
-      <c r="C37" s="256">
+      <c r="C37" s="258">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-181199-xstream.xml")</f>
       </c>
-      <c r="D37" s="257">
+      <c r="D37" s="259">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-181199-xstream.xml")</f>
       </c>
       <c r="E37" t="s">
@@ -3551,27 +3560,27 @@
       <c r="F37" t="s">
         <v>1</v>
       </c>
-      <c r="G37" t="s" s="258">
-        <v>2</v>
-      </c>
-      <c r="H37" t="s" s="259">
-        <v>3</v>
-      </c>
-      <c r="I37" t="s" s="260">
+      <c r="G37" t="s" s="260">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s" s="261">
+        <v>3</v>
+      </c>
+      <c r="I37" t="s" s="262">
         <v>4</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="261">
+      <c r="A38" t="s" s="263">
         <v>41</v>
       </c>
-      <c r="B38" s="262">
+      <c r="B38" s="264">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-182414.pdf")</f>
       </c>
-      <c r="C38" s="263">
+      <c r="C38" s="265">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-182414-xstream.xml")</f>
       </c>
-      <c r="D38" s="264">
+      <c r="D38" s="266">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-182414-xstream.xml")</f>
       </c>
       <c r="E38" t="s">
@@ -3580,27 +3589,27 @@
       <c r="F38" t="s">
         <v>1</v>
       </c>
-      <c r="G38" t="s" s="265">
-        <v>2</v>
-      </c>
-      <c r="H38" t="s" s="266">
-        <v>3</v>
-      </c>
-      <c r="I38" t="s" s="267">
+      <c r="G38" t="s" s="267">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s" s="268">
+        <v>3</v>
+      </c>
+      <c r="I38" t="s" s="269">
         <v>4</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="268">
+      <c r="A39" t="s" s="270">
         <v>42</v>
       </c>
-      <c r="B39" s="269">
+      <c r="B39" s="271">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-182899.pdf")</f>
       </c>
-      <c r="C39" s="270">
+      <c r="C39" s="272">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-182899-xstream.xml")</f>
       </c>
-      <c r="D39" s="271">
+      <c r="D39" s="273">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-182899-xstream.xml")</f>
       </c>
       <c r="E39" t="s">
@@ -3609,27 +3618,27 @@
       <c r="F39" t="s">
         <v>1</v>
       </c>
-      <c r="G39" t="s" s="272">
-        <v>2</v>
-      </c>
-      <c r="H39" t="s" s="273">
-        <v>3</v>
-      </c>
-      <c r="I39" t="s" s="274">
+      <c r="G39" t="s" s="274">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s" s="275">
+        <v>3</v>
+      </c>
+      <c r="I39" t="s" s="276">
         <v>4</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="275">
+      <c r="A40" t="s" s="277">
         <v>43</v>
       </c>
-      <c r="B40" s="276">
+      <c r="B40" s="278">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-185321.pdf")</f>
       </c>
-      <c r="C40" s="277">
+      <c r="C40" s="279">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-185321-xstream.xml")</f>
       </c>
-      <c r="D40" s="278">
+      <c r="D40" s="280">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-185321-xstream.xml")</f>
       </c>
       <c r="E40" t="s">
@@ -3638,27 +3647,27 @@
       <c r="F40" t="s">
         <v>1</v>
       </c>
-      <c r="G40" t="s" s="279">
-        <v>2</v>
-      </c>
-      <c r="H40" t="s" s="280">
-        <v>3</v>
-      </c>
-      <c r="I40" t="s" s="281">
+      <c r="G40" t="s" s="281">
+        <v>2</v>
+      </c>
+      <c r="H40" t="s" s="282">
+        <v>3</v>
+      </c>
+      <c r="I40" t="s" s="283">
         <v>4</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="282">
+      <c r="A41" t="s" s="284">
         <v>44</v>
       </c>
-      <c r="B41" s="283">
+      <c r="B41" s="285">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-185441.pdf")</f>
       </c>
-      <c r="C41" s="284">
+      <c r="C41" s="286">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-185441-xstream.xml")</f>
       </c>
-      <c r="D41" s="285">
+      <c r="D41" s="287">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-185441-xstream.xml")</f>
       </c>
       <c r="E41" t="s">
@@ -3667,27 +3676,27 @@
       <c r="F41" t="s">
         <v>1</v>
       </c>
-      <c r="G41" t="s" s="286">
-        <v>2</v>
-      </c>
-      <c r="H41" t="s" s="287">
-        <v>3</v>
-      </c>
-      <c r="I41" t="s" s="288">
+      <c r="G41" t="s" s="288">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s" s="289">
+        <v>3</v>
+      </c>
+      <c r="I41" t="s" s="290">
         <v>4</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="289">
+      <c r="A42" t="s" s="291">
         <v>45</v>
       </c>
-      <c r="B42" s="290">
+      <c r="B42" s="292">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-186227.pdf")</f>
       </c>
-      <c r="C42" s="291">
+      <c r="C42" s="293">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-186227-xstream.xml")</f>
       </c>
-      <c r="D42" s="292">
+      <c r="D42" s="294">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-186227-xstream.xml")</f>
       </c>
       <c r="E42" t="s">
@@ -3696,27 +3705,27 @@
       <c r="F42" t="s">
         <v>1</v>
       </c>
-      <c r="G42" t="s" s="293">
-        <v>2</v>
-      </c>
-      <c r="H42" t="s" s="294">
-        <v>3</v>
-      </c>
-      <c r="I42" t="s" s="295">
+      <c r="G42" t="s" s="295">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s" s="296">
+        <v>3</v>
+      </c>
+      <c r="I42" t="s" s="297">
         <v>4</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="296">
+      <c r="A43" t="s" s="298">
         <v>46</v>
       </c>
-      <c r="B43" s="297">
+      <c r="B43" s="299">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-189842.pdf")</f>
       </c>
-      <c r="C43" s="298">
+      <c r="C43" s="300">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-189842-xstream.xml")</f>
       </c>
-      <c r="D43" s="299">
+      <c r="D43" s="301">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-189842-xstream.xml")</f>
       </c>
       <c r="E43" t="s">
@@ -3725,27 +3734,27 @@
       <c r="F43" t="s">
         <v>1</v>
       </c>
-      <c r="G43" t="s" s="300">
-        <v>2</v>
-      </c>
-      <c r="H43" t="s" s="301">
-        <v>3</v>
-      </c>
-      <c r="I43" t="s" s="302">
+      <c r="G43" t="s" s="302">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s" s="303">
+        <v>3</v>
+      </c>
+      <c r="I43" t="s" s="304">
         <v>4</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="303">
+      <c r="A44" t="s" s="305">
         <v>47</v>
       </c>
-      <c r="B44" s="304">
+      <c r="B44" s="306">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-191715.pdf")</f>
       </c>
-      <c r="C44" s="305">
+      <c r="C44" s="307">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-191715-xstream.xml")</f>
       </c>
-      <c r="D44" s="306">
+      <c r="D44" s="308">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-191715-xstream.xml")</f>
       </c>
       <c r="E44" t="s">
@@ -3754,27 +3763,27 @@
       <c r="F44" t="s">
         <v>1</v>
       </c>
-      <c r="G44" t="s" s="307">
-        <v>2</v>
-      </c>
-      <c r="H44" t="s" s="308">
-        <v>3</v>
-      </c>
-      <c r="I44" t="s" s="309">
+      <c r="G44" t="s" s="309">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s" s="310">
+        <v>3</v>
+      </c>
+      <c r="I44" t="s" s="311">
         <v>4</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="310">
+      <c r="A45" t="s" s="312">
         <v>48</v>
       </c>
-      <c r="B45" s="311">
+      <c r="B45" s="313">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-191977.pdf")</f>
       </c>
-      <c r="C45" s="312">
+      <c r="C45" s="314">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-191977-xstream.xml")</f>
       </c>
-      <c r="D45" s="313">
+      <c r="D45" s="315">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-191977-xstream.xml")</f>
       </c>
       <c r="E45" t="s">
@@ -3783,27 +3792,27 @@
       <c r="F45" t="s">
         <v>1</v>
       </c>
-      <c r="G45" t="s" s="314">
-        <v>2</v>
-      </c>
-      <c r="H45" t="s" s="315">
-        <v>3</v>
-      </c>
-      <c r="I45" t="s" s="316">
+      <c r="G45" t="s" s="316">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s" s="317">
+        <v>3</v>
+      </c>
+      <c r="I45" t="s" s="318">
         <v>4</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="317">
+      <c r="A46" t="s" s="319">
         <v>49</v>
       </c>
-      <c r="B46" s="318">
+      <c r="B46" s="320">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-192724.pdf")</f>
       </c>
-      <c r="C46" s="319">
+      <c r="C46" s="321">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-192724-xstream.xml")</f>
       </c>
-      <c r="D46" s="320">
+      <c r="D46" s="322">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-192724-xstream.xml")</f>
       </c>
       <c r="E46" t="s">
@@ -3812,27 +3821,27 @@
       <c r="F46" t="s">
         <v>1</v>
       </c>
-      <c r="G46" t="s" s="321">
-        <v>2</v>
-      </c>
-      <c r="H46" t="s" s="322">
-        <v>3</v>
-      </c>
-      <c r="I46" t="s" s="323">
+      <c r="G46" t="s" s="323">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s" s="324">
+        <v>3</v>
+      </c>
+      <c r="I46" t="s" s="325">
         <v>4</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="324">
+      <c r="A47" t="s" s="326">
         <v>50</v>
       </c>
-      <c r="B47" s="325">
+      <c r="B47" s="327">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-194085.pdf")</f>
       </c>
-      <c r="C47" s="326">
+      <c r="C47" s="328">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-194085-xstream.xml")</f>
       </c>
-      <c r="D47" s="327">
+      <c r="D47" s="329">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-194085-xstream.xml")</f>
       </c>
       <c r="E47" t="s">
@@ -3841,56 +3850,56 @@
       <c r="F47" t="s">
         <v>1</v>
       </c>
-      <c r="G47" t="s" s="328">
-        <v>2</v>
-      </c>
-      <c r="H47" t="s" s="329">
-        <v>3</v>
-      </c>
-      <c r="I47" t="s" s="330">
+      <c r="G47" t="s" s="330">
+        <v>2</v>
+      </c>
+      <c r="H47" t="s" s="331">
+        <v>3</v>
+      </c>
+      <c r="I47" t="s" s="332">
         <v>4</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="331">
+      <c r="A48" t="s" s="333">
         <v>51</v>
       </c>
-      <c r="B48" s="332">
+      <c r="B48" s="334">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-194561.pdf")</f>
       </c>
-      <c r="C48" s="333">
+      <c r="C48" s="335">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-194561-xstream.xml")</f>
       </c>
-      <c r="D48" s="334">
+      <c r="D48" s="336">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-194561-xstream.xml")</f>
       </c>
-      <c r="E48" t="s">
-        <v>1</v>
+      <c r="E48" t="n" s="337">
+        <v>56.0</v>
       </c>
       <c r="F48" t="s">
         <v>1</v>
       </c>
-      <c r="G48" t="s" s="335">
-        <v>2</v>
-      </c>
-      <c r="H48" t="s" s="336">
-        <v>3</v>
-      </c>
-      <c r="I48" t="s" s="337">
-        <v>4</v>
+      <c r="G48" t="s" s="338">
+        <v>2</v>
+      </c>
+      <c r="H48" t="n" s="339">
+        <v>0.0</v>
+      </c>
+      <c r="I48" t="n" s="340">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="338">
+      <c r="A49" t="s" s="341">
         <v>52</v>
       </c>
-      <c r="B49" s="339">
+      <c r="B49" s="342">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-194660.pdf")</f>
       </c>
-      <c r="C49" s="340">
+      <c r="C49" s="343">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-194660-xstream.xml")</f>
       </c>
-      <c r="D49" s="341">
+      <c r="D49" s="344">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-194660-xstream.xml")</f>
       </c>
       <c r="E49" t="s">
@@ -3899,27 +3908,27 @@
       <c r="F49" t="s">
         <v>1</v>
       </c>
-      <c r="G49" t="s" s="342">
-        <v>2</v>
-      </c>
-      <c r="H49" t="s" s="343">
-        <v>3</v>
-      </c>
-      <c r="I49" t="s" s="344">
+      <c r="G49" t="s" s="345">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s" s="346">
+        <v>3</v>
+      </c>
+      <c r="I49" t="s" s="347">
         <v>4</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="345">
+      <c r="A50" t="s" s="348">
         <v>53</v>
       </c>
-      <c r="B50" s="346">
+      <c r="B50" s="349">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-197422.pdf")</f>
       </c>
-      <c r="C50" s="347">
+      <c r="C50" s="350">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-197422-xstream.xml")</f>
       </c>
-      <c r="D50" s="348">
+      <c r="D50" s="351">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-197422-xstream.xml")</f>
       </c>
       <c r="E50" t="s">
@@ -3928,27 +3937,27 @@
       <c r="F50" t="s">
         <v>1</v>
       </c>
-      <c r="G50" t="s" s="349">
-        <v>2</v>
-      </c>
-      <c r="H50" t="s" s="350">
-        <v>3</v>
-      </c>
-      <c r="I50" t="s" s="351">
+      <c r="G50" t="s" s="352">
+        <v>2</v>
+      </c>
+      <c r="H50" t="s" s="353">
+        <v>3</v>
+      </c>
+      <c r="I50" t="s" s="354">
         <v>4</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="352">
+      <c r="A51" t="s" s="355">
         <v>54</v>
       </c>
-      <c r="B51" s="353">
+      <c r="B51" s="356">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-197852.pdf")</f>
       </c>
-      <c r="C51" s="354">
+      <c r="C51" s="357">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-197852-xstream.xml")</f>
       </c>
-      <c r="D51" s="355">
+      <c r="D51" s="358">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-197852-xstream.xml")</f>
       </c>
       <c r="E51" t="s">
@@ -3957,27 +3966,27 @@
       <c r="F51" t="s">
         <v>1</v>
       </c>
-      <c r="G51" t="s" s="356">
-        <v>2</v>
-      </c>
-      <c r="H51" t="s" s="357">
-        <v>3</v>
-      </c>
-      <c r="I51" t="s" s="358">
+      <c r="G51" t="s" s="359">
+        <v>2</v>
+      </c>
+      <c r="H51" t="s" s="360">
+        <v>3</v>
+      </c>
+      <c r="I51" t="s" s="361">
         <v>4</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="359">
+      <c r="A52" t="s" s="362">
         <v>55</v>
       </c>
-      <c r="B52" s="360">
+      <c r="B52" s="363">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198400.pdf")</f>
       </c>
-      <c r="C52" s="361">
+      <c r="C52" s="364">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-198400-xstream.xml")</f>
       </c>
-      <c r="D52" s="362">
+      <c r="D52" s="365">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-198400-xstream.xml")</f>
       </c>
       <c r="E52" t="s">
@@ -3986,27 +3995,27 @@
       <c r="F52" t="s">
         <v>1</v>
       </c>
-      <c r="G52" t="s" s="363">
-        <v>2</v>
-      </c>
-      <c r="H52" t="s" s="364">
-        <v>3</v>
-      </c>
-      <c r="I52" t="s" s="365">
+      <c r="G52" t="s" s="366">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s" s="367">
+        <v>3</v>
+      </c>
+      <c r="I52" t="s" s="368">
         <v>4</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="366">
+      <c r="A53" t="s" s="369">
         <v>56</v>
       </c>
-      <c r="B53" s="367">
+      <c r="B53" s="370">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198401.pdf")</f>
       </c>
-      <c r="C53" s="368">
+      <c r="C53" s="371">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-198401-xstream.xml")</f>
       </c>
-      <c r="D53" s="369">
+      <c r="D53" s="372">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-198401-xstream.xml")</f>
       </c>
       <c r="E53" t="s">
@@ -4015,27 +4024,27 @@
       <c r="F53" t="s">
         <v>1</v>
       </c>
-      <c r="G53" t="s" s="370">
-        <v>2</v>
-      </c>
-      <c r="H53" t="s" s="371">
-        <v>3</v>
-      </c>
-      <c r="I53" t="s" s="372">
+      <c r="G53" t="s" s="373">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s" s="374">
+        <v>3</v>
+      </c>
+      <c r="I53" t="s" s="375">
         <v>4</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="373">
+      <c r="A54" t="s" s="376">
         <v>57</v>
       </c>
-      <c r="B54" s="374">
+      <c r="B54" s="377">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198405.pdf")</f>
       </c>
-      <c r="C54" s="375">
+      <c r="C54" s="378">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-198405-xstream.xml")</f>
       </c>
-      <c r="D54" s="376">
+      <c r="D54" s="379">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-198405-xstream.xml")</f>
       </c>
       <c r="E54" t="s">
@@ -4044,27 +4053,27 @@
       <c r="F54" t="s">
         <v>1</v>
       </c>
-      <c r="G54" t="s" s="377">
-        <v>2</v>
-      </c>
-      <c r="H54" t="s" s="378">
-        <v>3</v>
-      </c>
-      <c r="I54" t="s" s="379">
+      <c r="G54" t="s" s="380">
+        <v>2</v>
+      </c>
+      <c r="H54" t="s" s="381">
+        <v>3</v>
+      </c>
+      <c r="I54" t="s" s="382">
         <v>4</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="380">
+      <c r="A55" t="s" s="383">
         <v>58</v>
       </c>
-      <c r="B55" s="381">
+      <c r="B55" s="384">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-198408.pdf")</f>
       </c>
-      <c r="C55" s="382">
+      <c r="C55" s="385">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-198408-xstream.xml")</f>
       </c>
-      <c r="D55" s="383">
+      <c r="D55" s="386">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-198408-xstream.xml")</f>
       </c>
       <c r="E55" t="s">
@@ -4073,27 +4082,27 @@
       <c r="F55" t="s">
         <v>1</v>
       </c>
-      <c r="G55" t="s" s="384">
-        <v>2</v>
-      </c>
-      <c r="H55" t="s" s="385">
-        <v>3</v>
-      </c>
-      <c r="I55" t="s" s="386">
+      <c r="G55" t="s" s="387">
+        <v>2</v>
+      </c>
+      <c r="H55" t="s" s="388">
+        <v>3</v>
+      </c>
+      <c r="I55" t="s" s="389">
         <v>4</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="387">
+      <c r="A56" t="s" s="390">
         <v>59</v>
       </c>
-      <c r="B56" s="388">
+      <c r="B56" s="391">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200745.pdf")</f>
       </c>
-      <c r="C56" s="389">
+      <c r="C56" s="392">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-200745-xstream.xml")</f>
       </c>
-      <c r="D56" s="390">
+      <c r="D56" s="393">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-200745-xstream.xml")</f>
       </c>
       <c r="E56" t="s">
@@ -4102,27 +4111,27 @@
       <c r="F56" t="s">
         <v>1</v>
       </c>
-      <c r="G56" t="s" s="391">
-        <v>2</v>
-      </c>
-      <c r="H56" t="s" s="392">
-        <v>3</v>
-      </c>
-      <c r="I56" t="s" s="393">
+      <c r="G56" t="s" s="394">
+        <v>2</v>
+      </c>
+      <c r="H56" t="s" s="395">
+        <v>3</v>
+      </c>
+      <c r="I56" t="s" s="396">
         <v>4</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="394">
+      <c r="A57" t="s" s="397">
         <v>60</v>
       </c>
-      <c r="B57" s="395">
+      <c r="B57" s="398">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200748.pdf")</f>
       </c>
-      <c r="C57" s="396">
+      <c r="C57" s="399">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-200748-xstream.xml")</f>
       </c>
-      <c r="D57" s="397">
+      <c r="D57" s="400">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-200748-xstream.xml")</f>
       </c>
       <c r="E57" t="s">
@@ -4131,27 +4140,27 @@
       <c r="F57" t="s">
         <v>1</v>
       </c>
-      <c r="G57" t="s" s="398">
-        <v>2</v>
-      </c>
-      <c r="H57" t="s" s="399">
-        <v>3</v>
-      </c>
-      <c r="I57" t="s" s="400">
+      <c r="G57" t="s" s="401">
+        <v>2</v>
+      </c>
+      <c r="H57" t="s" s="402">
+        <v>3</v>
+      </c>
+      <c r="I57" t="s" s="403">
         <v>4</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="401">
+      <c r="A58" t="s" s="404">
         <v>61</v>
       </c>
-      <c r="B58" s="402">
+      <c r="B58" s="405">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200948.pdf")</f>
       </c>
-      <c r="C58" s="403">
+      <c r="C58" s="406">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-200948-xstream.xml")</f>
       </c>
-      <c r="D58" s="404">
+      <c r="D58" s="407">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-200948-xstream.xml")</f>
       </c>
       <c r="E58" t="s">
@@ -4160,27 +4169,27 @@
       <c r="F58" t="s">
         <v>1</v>
       </c>
-      <c r="G58" t="s" s="405">
-        <v>2</v>
-      </c>
-      <c r="H58" t="s" s="406">
-        <v>3</v>
-      </c>
-      <c r="I58" t="s" s="407">
+      <c r="G58" t="s" s="408">
+        <v>2</v>
+      </c>
+      <c r="H58" t="s" s="409">
+        <v>3</v>
+      </c>
+      <c r="I58" t="s" s="410">
         <v>4</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="408">
+      <c r="A59" t="s" s="411">
         <v>62</v>
       </c>
-      <c r="B59" s="409">
+      <c r="B59" s="412">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200950.pdf")</f>
       </c>
-      <c r="C59" s="410">
+      <c r="C59" s="413">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-200950-xstream.xml")</f>
       </c>
-      <c r="D59" s="411">
+      <c r="D59" s="414">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-200950-xstream.xml")</f>
       </c>
       <c r="E59" t="s">
@@ -4189,27 +4198,27 @@
       <c r="F59" t="s">
         <v>1</v>
       </c>
-      <c r="G59" t="s" s="412">
-        <v>2</v>
-      </c>
-      <c r="H59" t="s" s="413">
-        <v>3</v>
-      </c>
-      <c r="I59" t="s" s="414">
+      <c r="G59" t="s" s="415">
+        <v>2</v>
+      </c>
+      <c r="H59" t="s" s="416">
+        <v>3</v>
+      </c>
+      <c r="I59" t="s" s="417">
         <v>4</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="415">
+      <c r="A60" t="s" s="418">
         <v>63</v>
       </c>
-      <c r="B60" s="416">
+      <c r="B60" s="419">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-200959.pdf")</f>
       </c>
-      <c r="C60" s="417">
+      <c r="C60" s="420">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-200959-xstream.xml")</f>
       </c>
-      <c r="D60" s="418">
+      <c r="D60" s="421">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-200959-xstream.xml")</f>
       </c>
       <c r="E60" t="s">
@@ -4218,27 +4227,27 @@
       <c r="F60" t="s">
         <v>1</v>
       </c>
-      <c r="G60" t="s" s="419">
-        <v>2</v>
-      </c>
-      <c r="H60" t="s" s="420">
-        <v>3</v>
-      </c>
-      <c r="I60" t="s" s="421">
+      <c r="G60" t="s" s="422">
+        <v>2</v>
+      </c>
+      <c r="H60" t="s" s="423">
+        <v>3</v>
+      </c>
+      <c r="I60" t="s" s="424">
         <v>4</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="422">
+      <c r="A61" t="s" s="425">
         <v>64</v>
       </c>
-      <c r="B61" s="423">
+      <c r="B61" s="426">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201066.pdf")</f>
       </c>
-      <c r="C61" s="424">
+      <c r="C61" s="427">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-201066-xstream.xml")</f>
       </c>
-      <c r="D61" s="425">
+      <c r="D61" s="428">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-201066-xstream.xml")</f>
       </c>
       <c r="E61" t="s">
@@ -4247,27 +4256,27 @@
       <c r="F61" t="s">
         <v>1</v>
       </c>
-      <c r="G61" t="s" s="426">
-        <v>2</v>
-      </c>
-      <c r="H61" t="s" s="427">
-        <v>3</v>
-      </c>
-      <c r="I61" t="s" s="428">
+      <c r="G61" t="s" s="429">
+        <v>2</v>
+      </c>
+      <c r="H61" t="s" s="430">
+        <v>3</v>
+      </c>
+      <c r="I61" t="s" s="431">
         <v>4</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="429">
+      <c r="A62" t="s" s="432">
         <v>65</v>
       </c>
-      <c r="B62" s="430">
+      <c r="B62" s="433">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201160.pdf")</f>
       </c>
-      <c r="C62" s="431">
+      <c r="C62" s="434">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-201160-xstream.xml")</f>
       </c>
-      <c r="D62" s="432">
+      <c r="D62" s="435">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-201160-xstream.xml")</f>
       </c>
       <c r="E62" t="s">
@@ -4276,27 +4285,27 @@
       <c r="F62" t="s">
         <v>1</v>
       </c>
-      <c r="G62" t="s" s="433">
-        <v>2</v>
-      </c>
-      <c r="H62" t="s" s="434">
-        <v>3</v>
-      </c>
-      <c r="I62" t="s" s="435">
+      <c r="G62" t="s" s="436">
+        <v>2</v>
+      </c>
+      <c r="H62" t="s" s="437">
+        <v>3</v>
+      </c>
+      <c r="I62" t="s" s="438">
         <v>4</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="436">
+      <c r="A63" t="s" s="439">
         <v>66</v>
       </c>
-      <c r="B63" s="437">
+      <c r="B63" s="440">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201167.pdf")</f>
       </c>
-      <c r="C63" s="438">
+      <c r="C63" s="441">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-201167-xstream.xml")</f>
       </c>
-      <c r="D63" s="439">
+      <c r="D63" s="442">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-201167-xstream.xml")</f>
       </c>
       <c r="E63" t="s">
@@ -4305,27 +4314,27 @@
       <c r="F63" t="s">
         <v>1</v>
       </c>
-      <c r="G63" t="s" s="440">
-        <v>2</v>
-      </c>
-      <c r="H63" t="s" s="441">
-        <v>3</v>
-      </c>
-      <c r="I63" t="s" s="442">
+      <c r="G63" t="s" s="443">
+        <v>2</v>
+      </c>
+      <c r="H63" t="s" s="444">
+        <v>3</v>
+      </c>
+      <c r="I63" t="s" s="445">
         <v>4</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="443">
+      <c r="A64" t="s" s="446">
         <v>67</v>
       </c>
-      <c r="B64" s="444">
+      <c r="B64" s="447">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-201821.pdf")</f>
       </c>
-      <c r="C64" s="445">
+      <c r="C64" s="448">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-201821-xstream.xml")</f>
       </c>
-      <c r="D64" s="446">
+      <c r="D64" s="449">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-201821-xstream.xml")</f>
       </c>
       <c r="E64" t="s">
@@ -4334,27 +4343,27 @@
       <c r="F64" t="s">
         <v>1</v>
       </c>
-      <c r="G64" t="s" s="447">
-        <v>2</v>
-      </c>
-      <c r="H64" t="s" s="448">
-        <v>3</v>
-      </c>
-      <c r="I64" t="s" s="449">
+      <c r="G64" t="s" s="450">
+        <v>2</v>
+      </c>
+      <c r="H64" t="s" s="451">
+        <v>3</v>
+      </c>
+      <c r="I64" t="s" s="452">
         <v>4</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="450">
+      <c r="A65" t="s" s="453">
         <v>68</v>
       </c>
-      <c r="B65" s="451">
+      <c r="B65" s="454">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-202034.pdf")</f>
       </c>
-      <c r="C65" s="452">
+      <c r="C65" s="455">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-202034-xstream.xml")</f>
       </c>
-      <c r="D65" s="453">
+      <c r="D65" s="456">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-202034-xstream.xml")</f>
       </c>
       <c r="E65" t="s">
@@ -4363,27 +4372,27 @@
       <c r="F65" t="s">
         <v>1</v>
       </c>
-      <c r="G65" t="s" s="454">
-        <v>2</v>
-      </c>
-      <c r="H65" t="s" s="455">
-        <v>3</v>
-      </c>
-      <c r="I65" t="s" s="456">
+      <c r="G65" t="s" s="457">
+        <v>2</v>
+      </c>
+      <c r="H65" t="s" s="458">
+        <v>3</v>
+      </c>
+      <c r="I65" t="s" s="459">
         <v>4</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="457">
+      <c r="A66" t="s" s="460">
         <v>69</v>
       </c>
-      <c r="B66" s="458">
+      <c r="B66" s="461">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-202824.pdf")</f>
       </c>
-      <c r="C66" s="459">
+      <c r="C66" s="462">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-202824-xstream.xml")</f>
       </c>
-      <c r="D66" s="460">
+      <c r="D66" s="463">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-202824-xstream.xml")</f>
       </c>
       <c r="E66" t="s">
@@ -4392,27 +4401,27 @@
       <c r="F66" t="s">
         <v>1</v>
       </c>
-      <c r="G66" t="s" s="461">
-        <v>2</v>
-      </c>
-      <c r="H66" t="s" s="462">
-        <v>3</v>
-      </c>
-      <c r="I66" t="s" s="463">
+      <c r="G66" t="s" s="464">
+        <v>2</v>
+      </c>
+      <c r="H66" t="s" s="465">
+        <v>3</v>
+      </c>
+      <c r="I66" t="s" s="466">
         <v>4</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="464">
+      <c r="A67" t="s" s="467">
         <v>70</v>
       </c>
-      <c r="B67" s="465">
+      <c r="B67" s="468">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-203409.pdf")</f>
       </c>
-      <c r="C67" s="466">
+      <c r="C67" s="469">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-203409-xstream.xml")</f>
       </c>
-      <c r="D67" s="467">
+      <c r="D67" s="470">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-203409-xstream.xml")</f>
       </c>
       <c r="E67" t="s">
@@ -4421,27 +4430,27 @@
       <c r="F67" t="s">
         <v>1</v>
       </c>
-      <c r="G67" t="s" s="468">
-        <v>2</v>
-      </c>
-      <c r="H67" t="s" s="469">
-        <v>3</v>
-      </c>
-      <c r="I67" t="s" s="470">
+      <c r="G67" t="s" s="471">
+        <v>2</v>
+      </c>
+      <c r="H67" t="s" s="472">
+        <v>3</v>
+      </c>
+      <c r="I67" t="s" s="473">
         <v>4</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="471">
+      <c r="A68" t="s" s="474">
         <v>71</v>
       </c>
-      <c r="B68" s="472">
+      <c r="B68" s="475">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-203924.pdf")</f>
       </c>
-      <c r="C68" s="473">
+      <c r="C68" s="476">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-203924-xstream.xml")</f>
       </c>
-      <c r="D68" s="474">
+      <c r="D68" s="477">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-203924-xstream.xml")</f>
       </c>
       <c r="E68" t="s">
@@ -4450,27 +4459,27 @@
       <c r="F68" t="s">
         <v>1</v>
       </c>
-      <c r="G68" t="s" s="475">
-        <v>2</v>
-      </c>
-      <c r="H68" t="s" s="476">
-        <v>3</v>
-      </c>
-      <c r="I68" t="s" s="477">
+      <c r="G68" t="s" s="478">
+        <v>2</v>
+      </c>
+      <c r="H68" t="s" s="479">
+        <v>3</v>
+      </c>
+      <c r="I68" t="s" s="480">
         <v>4</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="478">
+      <c r="A69" t="s" s="481">
         <v>72</v>
       </c>
-      <c r="B69" s="479">
+      <c r="B69" s="482">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-204724.pdf")</f>
       </c>
-      <c r="C69" s="480">
+      <c r="C69" s="483">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-204724-xstream.xml")</f>
       </c>
-      <c r="D69" s="481">
+      <c r="D69" s="484">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-204724-xstream.xml")</f>
       </c>
       <c r="E69" t="s">
@@ -4479,27 +4488,27 @@
       <c r="F69" t="s">
         <v>1</v>
       </c>
-      <c r="G69" t="s" s="482">
-        <v>2</v>
-      </c>
-      <c r="H69" t="s" s="483">
-        <v>3</v>
-      </c>
-      <c r="I69" t="s" s="484">
+      <c r="G69" t="s" s="485">
+        <v>2</v>
+      </c>
+      <c r="H69" t="s" s="486">
+        <v>3</v>
+      </c>
+      <c r="I69" t="s" s="487">
         <v>4</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="485">
+      <c r="A70" t="s" s="488">
         <v>73</v>
       </c>
-      <c r="B70" s="486">
+      <c r="B70" s="489">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-205557.pdf")</f>
       </c>
-      <c r="C70" s="487">
+      <c r="C70" s="490">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-205557-xstream.xml")</f>
       </c>
-      <c r="D70" s="488">
+      <c r="D70" s="491">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-205557-xstream.xml")</f>
       </c>
       <c r="E70" t="s">
@@ -4508,27 +4517,27 @@
       <c r="F70" t="s">
         <v>1</v>
       </c>
-      <c r="G70" t="s" s="489">
-        <v>2</v>
-      </c>
-      <c r="H70" t="s" s="490">
-        <v>3</v>
-      </c>
-      <c r="I70" t="s" s="491">
+      <c r="G70" t="s" s="492">
+        <v>2</v>
+      </c>
+      <c r="H70" t="s" s="493">
+        <v>3</v>
+      </c>
+      <c r="I70" t="s" s="494">
         <v>4</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="492">
+      <c r="A71" t="s" s="495">
         <v>74</v>
       </c>
-      <c r="B71" s="493">
+      <c r="B71" s="496">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-205933.pdf")</f>
       </c>
-      <c r="C71" s="494">
+      <c r="C71" s="497">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-205933-xstream.xml")</f>
       </c>
-      <c r="D71" s="495">
+      <c r="D71" s="498">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-205933-xstream.xml")</f>
       </c>
       <c r="E71" t="s">
@@ -4537,27 +4546,27 @@
       <c r="F71" t="s">
         <v>1</v>
       </c>
-      <c r="G71" t="s" s="496">
-        <v>2</v>
-      </c>
-      <c r="H71" t="s" s="497">
-        <v>3</v>
-      </c>
-      <c r="I71" t="s" s="498">
+      <c r="G71" t="s" s="499">
+        <v>2</v>
+      </c>
+      <c r="H71" t="s" s="500">
+        <v>3</v>
+      </c>
+      <c r="I71" t="s" s="501">
         <v>4</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="499">
+      <c r="A72" t="s" s="502">
         <v>75</v>
       </c>
-      <c r="B72" s="500">
+      <c r="B72" s="503">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-213513.pdf")</f>
       </c>
-      <c r="C72" s="501">
+      <c r="C72" s="504">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-213513-xstream.xml")</f>
       </c>
-      <c r="D72" s="502">
+      <c r="D72" s="505">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-213513-xstream.xml")</f>
       </c>
       <c r="E72" t="s">
@@ -4566,27 +4575,27 @@
       <c r="F72" t="s">
         <v>1</v>
       </c>
-      <c r="G72" t="s" s="503">
-        <v>2</v>
-      </c>
-      <c r="H72" t="s" s="504">
-        <v>3</v>
-      </c>
-      <c r="I72" t="s" s="505">
+      <c r="G72" t="s" s="506">
+        <v>2</v>
+      </c>
+      <c r="H72" t="s" s="507">
+        <v>3</v>
+      </c>
+      <c r="I72" t="s" s="508">
         <v>4</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="506">
+      <c r="A73" t="s" s="509">
         <v>76</v>
       </c>
-      <c r="B73" s="507">
+      <c r="B73" s="510">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-216744.pdf")</f>
       </c>
-      <c r="C73" s="508">
+      <c r="C73" s="511">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-216744-xstream.xml")</f>
       </c>
-      <c r="D73" s="509">
+      <c r="D73" s="512">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-216744-xstream.xml")</f>
       </c>
       <c r="E73" t="s">
@@ -4595,27 +4604,27 @@
       <c r="F73" t="s">
         <v>1</v>
       </c>
-      <c r="G73" t="s" s="510">
-        <v>2</v>
-      </c>
-      <c r="H73" t="s" s="511">
-        <v>3</v>
-      </c>
-      <c r="I73" t="s" s="512">
+      <c r="G73" t="s" s="513">
+        <v>2</v>
+      </c>
+      <c r="H73" t="s" s="514">
+        <v>3</v>
+      </c>
+      <c r="I73" t="s" s="515">
         <v>4</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="513">
+      <c r="A74" t="s" s="516">
         <v>77</v>
       </c>
-      <c r="B74" s="514">
+      <c r="B74" s="517">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-217690.pdf")</f>
       </c>
-      <c r="C74" s="515">
+      <c r="C74" s="518">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-217690-xstream.xml")</f>
       </c>
-      <c r="D74" s="516">
+      <c r="D74" s="519">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-217690-xstream.xml")</f>
       </c>
       <c r="E74" t="s">
@@ -4624,27 +4633,27 @@
       <c r="F74" t="s">
         <v>1</v>
       </c>
-      <c r="G74" t="s" s="517">
-        <v>2</v>
-      </c>
-      <c r="H74" t="s" s="518">
-        <v>3</v>
-      </c>
-      <c r="I74" t="s" s="519">
+      <c r="G74" t="s" s="520">
+        <v>2</v>
+      </c>
+      <c r="H74" t="s" s="521">
+        <v>3</v>
+      </c>
+      <c r="I74" t="s" s="522">
         <v>4</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="520">
+      <c r="A75" t="s" s="523">
         <v>78</v>
       </c>
-      <c r="B75" s="521">
+      <c r="B75" s="524">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-217971.pdf")</f>
       </c>
-      <c r="C75" s="522">
+      <c r="C75" s="525">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-217971-xstream.xml")</f>
       </c>
-      <c r="D75" s="523">
+      <c r="D75" s="526">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-217971-xstream.xml")</f>
       </c>
       <c r="E75" t="s">
@@ -4653,27 +4662,27 @@
       <c r="F75" t="s">
         <v>1</v>
       </c>
-      <c r="G75" t="s" s="524">
-        <v>2</v>
-      </c>
-      <c r="H75" t="s" s="525">
-        <v>3</v>
-      </c>
-      <c r="I75" t="s" s="526">
+      <c r="G75" t="s" s="527">
+        <v>2</v>
+      </c>
+      <c r="H75" t="s" s="528">
+        <v>3</v>
+      </c>
+      <c r="I75" t="s" s="529">
         <v>4</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="527">
+      <c r="A76" t="s" s="530">
         <v>79</v>
       </c>
-      <c r="B76" s="528">
+      <c r="B76" s="531">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-221215.pdf")</f>
       </c>
-      <c r="C76" s="529">
+      <c r="C76" s="532">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-221215-xstream.xml")</f>
       </c>
-      <c r="D76" s="530">
+      <c r="D76" s="533">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-221215-xstream.xml")</f>
       </c>
       <c r="E76" t="s">
@@ -4682,27 +4691,27 @@
       <c r="F76" t="s">
         <v>1</v>
       </c>
-      <c r="G76" t="s" s="531">
-        <v>2</v>
-      </c>
-      <c r="H76" t="s" s="532">
-        <v>3</v>
-      </c>
-      <c r="I76" t="s" s="533">
+      <c r="G76" t="s" s="534">
+        <v>2</v>
+      </c>
+      <c r="H76" t="s" s="535">
+        <v>3</v>
+      </c>
+      <c r="I76" t="s" s="536">
         <v>4</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="534">
+      <c r="A77" t="s" s="537">
         <v>80</v>
       </c>
-      <c r="B77" s="535">
+      <c r="B77" s="538">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-223906.pdf")</f>
       </c>
-      <c r="C77" s="536">
+      <c r="C77" s="539">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-223906-xstream.xml")</f>
       </c>
-      <c r="D77" s="537">
+      <c r="D77" s="540">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-223906-xstream.xml")</f>
       </c>
       <c r="E77" t="s">
@@ -4711,27 +4720,27 @@
       <c r="F77" t="s">
         <v>1</v>
       </c>
-      <c r="G77" t="s" s="538">
-        <v>2</v>
-      </c>
-      <c r="H77" t="s" s="539">
-        <v>3</v>
-      </c>
-      <c r="I77" t="s" s="540">
+      <c r="G77" t="s" s="541">
+        <v>2</v>
+      </c>
+      <c r="H77" t="s" s="542">
+        <v>3</v>
+      </c>
+      <c r="I77" t="s" s="543">
         <v>4</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="541">
+      <c r="A78" t="s" s="544">
         <v>81</v>
       </c>
-      <c r="B78" s="542">
+      <c r="B78" s="545">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-223973.pdf")</f>
       </c>
-      <c r="C78" s="543">
+      <c r="C78" s="546">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-223973-xstream.xml")</f>
       </c>
-      <c r="D78" s="544">
+      <c r="D78" s="547">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-223973-xstream.xml")</f>
       </c>
       <c r="E78" t="s">
@@ -4740,27 +4749,27 @@
       <c r="F78" t="s">
         <v>1</v>
       </c>
-      <c r="G78" t="s" s="545">
-        <v>2</v>
-      </c>
-      <c r="H78" t="s" s="546">
-        <v>3</v>
-      </c>
-      <c r="I78" t="s" s="547">
+      <c r="G78" t="s" s="548">
+        <v>2</v>
+      </c>
+      <c r="H78" t="s" s="549">
+        <v>3</v>
+      </c>
+      <c r="I78" t="s" s="550">
         <v>4</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="548">
+      <c r="A79" t="s" s="551">
         <v>82</v>
       </c>
-      <c r="B79" s="549">
+      <c r="B79" s="552">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-225252.pdf")</f>
       </c>
-      <c r="C79" s="550">
+      <c r="C79" s="553">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-225252-xstream.xml")</f>
       </c>
-      <c r="D79" s="551">
+      <c r="D79" s="554">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-225252-xstream.xml")</f>
       </c>
       <c r="E79" t="s">
@@ -4769,27 +4778,27 @@
       <c r="F79" t="s">
         <v>1</v>
       </c>
-      <c r="G79" t="s" s="552">
-        <v>2</v>
-      </c>
-      <c r="H79" t="s" s="553">
-        <v>3</v>
-      </c>
-      <c r="I79" t="s" s="554">
+      <c r="G79" t="s" s="555">
+        <v>2</v>
+      </c>
+      <c r="H79" t="s" s="556">
+        <v>3</v>
+      </c>
+      <c r="I79" t="s" s="557">
         <v>4</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="555">
+      <c r="A80" t="s" s="558">
         <v>83</v>
       </c>
-      <c r="B80" s="556">
+      <c r="B80" s="559">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-226000.pdf")</f>
       </c>
-      <c r="C80" s="557">
+      <c r="C80" s="560">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-226000-xstream.xml")</f>
       </c>
-      <c r="D80" s="558">
+      <c r="D80" s="561">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-226000-xstream.xml")</f>
       </c>
       <c r="E80" t="s">
@@ -4798,27 +4807,27 @@
       <c r="F80" t="s">
         <v>1</v>
       </c>
-      <c r="G80" t="s" s="559">
-        <v>2</v>
-      </c>
-      <c r="H80" t="s" s="560">
-        <v>3</v>
-      </c>
-      <c r="I80" t="s" s="561">
+      <c r="G80" t="s" s="562">
+        <v>2</v>
+      </c>
+      <c r="H80" t="s" s="563">
+        <v>3</v>
+      </c>
+      <c r="I80" t="s" s="564">
         <v>4</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="562">
+      <c r="A81" t="s" s="565">
         <v>84</v>
       </c>
-      <c r="B81" s="563">
+      <c r="B81" s="566">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-226016.pdf")</f>
       </c>
-      <c r="C81" s="564">
+      <c r="C81" s="567">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-226016-xstream.xml")</f>
       </c>
-      <c r="D81" s="565">
+      <c r="D81" s="568">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-226016-xstream.xml")</f>
       </c>
       <c r="E81" t="s">
@@ -4827,27 +4836,27 @@
       <c r="F81" t="s">
         <v>1</v>
       </c>
-      <c r="G81" t="s" s="566">
-        <v>2</v>
-      </c>
-      <c r="H81" t="s" s="567">
-        <v>3</v>
-      </c>
-      <c r="I81" t="s" s="568">
+      <c r="G81" t="s" s="569">
+        <v>2</v>
+      </c>
+      <c r="H81" t="s" s="570">
+        <v>3</v>
+      </c>
+      <c r="I81" t="s" s="571">
         <v>4</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="569">
+      <c r="A82" t="s" s="572">
         <v>85</v>
       </c>
-      <c r="B82" s="570">
+      <c r="B82" s="573">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-228620.pdf")</f>
       </c>
-      <c r="C82" s="571">
+      <c r="C82" s="574">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-228620-xstream.xml")</f>
       </c>
-      <c r="D82" s="572">
+      <c r="D82" s="575">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-228620-xstream.xml")</f>
       </c>
       <c r="E82" t="s">
@@ -4856,27 +4865,27 @@
       <c r="F82" t="s">
         <v>1</v>
       </c>
-      <c r="G82" t="s" s="573">
-        <v>2</v>
-      </c>
-      <c r="H82" t="s" s="574">
-        <v>3</v>
-      </c>
-      <c r="I82" t="s" s="575">
+      <c r="G82" t="s" s="576">
+        <v>2</v>
+      </c>
+      <c r="H82" t="s" s="577">
+        <v>3</v>
+      </c>
+      <c r="I82" t="s" s="578">
         <v>4</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="576">
+      <c r="A83" t="s" s="579">
         <v>86</v>
       </c>
-      <c r="B83" s="577">
+      <c r="B83" s="580">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-231707.pdf")</f>
       </c>
-      <c r="C83" s="578">
+      <c r="C83" s="581">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-231707-xstream.xml")</f>
       </c>
-      <c r="D83" s="579">
+      <c r="D83" s="582">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-231707-xstream.xml")</f>
       </c>
       <c r="E83" t="s">
@@ -4885,27 +4894,27 @@
       <c r="F83" t="s">
         <v>1</v>
       </c>
-      <c r="G83" t="s" s="580">
-        <v>2</v>
-      </c>
-      <c r="H83" t="s" s="581">
-        <v>3</v>
-      </c>
-      <c r="I83" t="s" s="582">
+      <c r="G83" t="s" s="583">
+        <v>2</v>
+      </c>
+      <c r="H83" t="s" s="584">
+        <v>3</v>
+      </c>
+      <c r="I83" t="s" s="585">
         <v>4</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="583">
+      <c r="A84" t="s" s="586">
         <v>87</v>
       </c>
-      <c r="B84" s="584">
+      <c r="B84" s="587">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-233317.pdf")</f>
       </c>
-      <c r="C84" s="585">
+      <c r="C84" s="588">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-233317-xstream.xml")</f>
       </c>
-      <c r="D84" s="586">
+      <c r="D84" s="589">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-233317-xstream.xml")</f>
       </c>
       <c r="E84" t="s">
@@ -4914,27 +4923,27 @@
       <c r="F84" t="s">
         <v>1</v>
       </c>
-      <c r="G84" t="s" s="587">
-        <v>2</v>
-      </c>
-      <c r="H84" t="s" s="588">
-        <v>3</v>
-      </c>
-      <c r="I84" t="s" s="589">
+      <c r="G84" t="s" s="590">
+        <v>2</v>
+      </c>
+      <c r="H84" t="s" s="591">
+        <v>3</v>
+      </c>
+      <c r="I84" t="s" s="592">
         <v>4</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="590">
+      <c r="A85" t="s" s="593">
         <v>88</v>
       </c>
-      <c r="B85" s="591">
+      <c r="B85" s="594">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-233657.pdf")</f>
       </c>
-      <c r="C85" s="592">
+      <c r="C85" s="595">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-233657-xstream.xml")</f>
       </c>
-      <c r="D85" s="593">
+      <c r="D85" s="596">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-233657-xstream.xml")</f>
       </c>
       <c r="E85" t="s">
@@ -4943,27 +4952,27 @@
       <c r="F85" t="s">
         <v>1</v>
       </c>
-      <c r="G85" t="s" s="594">
-        <v>2</v>
-      </c>
-      <c r="H85" t="s" s="595">
-        <v>3</v>
-      </c>
-      <c r="I85" t="s" s="596">
+      <c r="G85" t="s" s="597">
+        <v>2</v>
+      </c>
+      <c r="H85" t="s" s="598">
+        <v>3</v>
+      </c>
+      <c r="I85" t="s" s="599">
         <v>4</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="597">
+      <c r="A86" t="s" s="600">
         <v>89</v>
       </c>
-      <c r="B86" s="598">
+      <c r="B86" s="601">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-236063.pdf")</f>
       </c>
-      <c r="C86" s="599">
+      <c r="C86" s="602">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-236063-xstream.xml")</f>
       </c>
-      <c r="D86" s="600">
+      <c r="D86" s="603">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-236063-xstream.xml")</f>
       </c>
       <c r="E86" t="s">
@@ -4972,27 +4981,27 @@
       <c r="F86" t="s">
         <v>1</v>
       </c>
-      <c r="G86" t="s" s="601">
-        <v>2</v>
-      </c>
-      <c r="H86" t="s" s="602">
-        <v>3</v>
-      </c>
-      <c r="I86" t="s" s="603">
+      <c r="G86" t="s" s="604">
+        <v>2</v>
+      </c>
+      <c r="H86" t="s" s="605">
+        <v>3</v>
+      </c>
+      <c r="I86" t="s" s="606">
         <v>4</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="604">
+      <c r="A87" t="s" s="607">
         <v>90</v>
       </c>
-      <c r="B87" s="605">
+      <c r="B87" s="608">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-236120.pdf")</f>
       </c>
-      <c r="C87" s="606">
+      <c r="C87" s="609">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-236120-xstream.xml")</f>
       </c>
-      <c r="D87" s="607">
+      <c r="D87" s="610">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-236120-xstream.xml")</f>
       </c>
       <c r="E87" t="s">
@@ -5001,27 +5010,27 @@
       <c r="F87" t="s">
         <v>1</v>
       </c>
-      <c r="G87" t="s" s="608">
-        <v>2</v>
-      </c>
-      <c r="H87" t="s" s="609">
-        <v>3</v>
-      </c>
-      <c r="I87" t="s" s="610">
+      <c r="G87" t="s" s="611">
+        <v>2</v>
+      </c>
+      <c r="H87" t="s" s="612">
+        <v>3</v>
+      </c>
+      <c r="I87" t="s" s="613">
         <v>4</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="611">
+      <c r="A88" t="s" s="614">
         <v>91</v>
       </c>
-      <c r="B88" s="612">
+      <c r="B88" s="615">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-237297.pdf")</f>
       </c>
-      <c r="C88" s="613">
+      <c r="C88" s="616">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-237297-xstream.xml")</f>
       </c>
-      <c r="D88" s="614">
+      <c r="D88" s="617">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-237297-xstream.xml")</f>
       </c>
       <c r="E88" t="s">
@@ -5030,27 +5039,27 @@
       <c r="F88" t="s">
         <v>1</v>
       </c>
-      <c r="G88" t="s" s="615">
-        <v>2</v>
-      </c>
-      <c r="H88" t="s" s="616">
-        <v>3</v>
-      </c>
-      <c r="I88" t="s" s="617">
+      <c r="G88" t="s" s="618">
+        <v>2</v>
+      </c>
+      <c r="H88" t="s" s="619">
+        <v>3</v>
+      </c>
+      <c r="I88" t="s" s="620">
         <v>4</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="618">
+      <c r="A89" t="s" s="621">
         <v>92</v>
       </c>
-      <c r="B89" s="619">
+      <c r="B89" s="622">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-240858.pdf")</f>
       </c>
-      <c r="C89" s="620">
+      <c r="C89" s="623">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-240858-xstream.xml")</f>
       </c>
-      <c r="D89" s="621">
+      <c r="D89" s="624">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-240858-xstream.xml")</f>
       </c>
       <c r="E89" t="s">
@@ -5059,27 +5068,27 @@
       <c r="F89" t="s">
         <v>1</v>
       </c>
-      <c r="G89" t="s" s="622">
-        <v>2</v>
-      </c>
-      <c r="H89" t="s" s="623">
-        <v>3</v>
-      </c>
-      <c r="I89" t="s" s="624">
+      <c r="G89" t="s" s="625">
+        <v>2</v>
+      </c>
+      <c r="H89" t="s" s="626">
+        <v>3</v>
+      </c>
+      <c r="I89" t="s" s="627">
         <v>4</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="625">
+      <c r="A90" t="s" s="628">
         <v>93</v>
       </c>
-      <c r="B90" s="626">
+      <c r="B90" s="629">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-245336.pdf")</f>
       </c>
-      <c r="C90" s="627">
+      <c r="C90" s="630">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-245336-xstream.xml")</f>
       </c>
-      <c r="D90" s="628">
+      <c r="D90" s="631">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-245336-xstream.xml")</f>
       </c>
       <c r="E90" t="s">
@@ -5088,27 +5097,27 @@
       <c r="F90" t="s">
         <v>1</v>
       </c>
-      <c r="G90" t="s" s="629">
-        <v>2</v>
-      </c>
-      <c r="H90" t="s" s="630">
-        <v>3</v>
-      </c>
-      <c r="I90" t="s" s="631">
+      <c r="G90" t="s" s="632">
+        <v>2</v>
+      </c>
+      <c r="H90" t="s" s="633">
+        <v>3</v>
+      </c>
+      <c r="I90" t="s" s="634">
         <v>4</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="632">
+      <c r="A91" t="s" s="635">
         <v>94</v>
       </c>
-      <c r="B91" s="633">
+      <c r="B91" s="636">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-245799.pdf")</f>
       </c>
-      <c r="C91" s="634">
+      <c r="C91" s="637">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-245799-xstream.xml")</f>
       </c>
-      <c r="D91" s="635">
+      <c r="D91" s="638">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-245799-xstream.xml")</f>
       </c>
       <c r="E91" t="s">
@@ -5117,27 +5126,27 @@
       <c r="F91" t="s">
         <v>1</v>
       </c>
-      <c r="G91" t="s" s="636">
-        <v>2</v>
-      </c>
-      <c r="H91" t="s" s="637">
-        <v>3</v>
-      </c>
-      <c r="I91" t="s" s="638">
+      <c r="G91" t="s" s="639">
+        <v>2</v>
+      </c>
+      <c r="H91" t="s" s="640">
+        <v>3</v>
+      </c>
+      <c r="I91" t="s" s="641">
         <v>4</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="639">
+      <c r="A92" t="s" s="642">
         <v>95</v>
       </c>
-      <c r="B92" s="640">
+      <c r="B92" s="643">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-247301.pdf")</f>
       </c>
-      <c r="C92" s="641">
+      <c r="C92" s="644">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-247301-xstream.xml")</f>
       </c>
-      <c r="D92" s="642">
+      <c r="D92" s="645">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-247301-xstream.xml")</f>
       </c>
       <c r="E92" t="s">
@@ -5146,27 +5155,27 @@
       <c r="F92" t="s">
         <v>1</v>
       </c>
-      <c r="G92" t="s" s="643">
-        <v>2</v>
-      </c>
-      <c r="H92" t="s" s="644">
-        <v>3</v>
-      </c>
-      <c r="I92" t="s" s="645">
+      <c r="G92" t="s" s="646">
+        <v>2</v>
+      </c>
+      <c r="H92" t="s" s="647">
+        <v>3</v>
+      </c>
+      <c r="I92" t="s" s="648">
         <v>4</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="646">
+      <c r="A93" t="s" s="649">
         <v>96</v>
       </c>
-      <c r="B93" s="647">
+      <c r="B93" s="650">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-247741.pdf")</f>
       </c>
-      <c r="C93" s="648">
+      <c r="C93" s="651">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-247741-xstream.xml")</f>
       </c>
-      <c r="D93" s="649">
+      <c r="D93" s="652">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-247741-xstream.xml")</f>
       </c>
       <c r="E93" t="s">
@@ -5175,27 +5184,27 @@
       <c r="F93" t="s">
         <v>1</v>
       </c>
-      <c r="G93" t="s" s="650">
-        <v>2</v>
-      </c>
-      <c r="H93" t="s" s="651">
-        <v>3</v>
-      </c>
-      <c r="I93" t="s" s="652">
+      <c r="G93" t="s" s="653">
+        <v>2</v>
+      </c>
+      <c r="H93" t="s" s="654">
+        <v>3</v>
+      </c>
+      <c r="I93" t="s" s="655">
         <v>4</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="653">
+      <c r="A94" t="s" s="656">
         <v>97</v>
       </c>
-      <c r="B94" s="654">
+      <c r="B94" s="657">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-247743.pdf")</f>
       </c>
-      <c r="C94" s="655">
+      <c r="C94" s="658">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-247743-xstream.xml")</f>
       </c>
-      <c r="D94" s="656">
+      <c r="D94" s="659">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-247743-xstream.xml")</f>
       </c>
       <c r="E94" t="s">
@@ -5204,27 +5213,27 @@
       <c r="F94" t="s">
         <v>1</v>
       </c>
-      <c r="G94" t="s" s="657">
-        <v>2</v>
-      </c>
-      <c r="H94" t="s" s="658">
-        <v>3</v>
-      </c>
-      <c r="I94" t="s" s="659">
+      <c r="G94" t="s" s="660">
+        <v>2</v>
+      </c>
+      <c r="H94" t="s" s="661">
+        <v>3</v>
+      </c>
+      <c r="I94" t="s" s="662">
         <v>4</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="660">
+      <c r="A95" t="s" s="663">
         <v>98</v>
       </c>
-      <c r="B95" s="661">
+      <c r="B95" s="664">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-251544.pdf")</f>
       </c>
-      <c r="C95" s="662">
+      <c r="C95" s="665">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-251544-xstream.xml")</f>
       </c>
-      <c r="D95" s="663">
+      <c r="D95" s="666">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-251544-xstream.xml")</f>
       </c>
       <c r="E95" t="s">
@@ -5233,27 +5242,27 @@
       <c r="F95" t="s">
         <v>1</v>
       </c>
-      <c r="G95" t="s" s="664">
-        <v>2</v>
-      </c>
-      <c r="H95" t="s" s="665">
-        <v>3</v>
-      </c>
-      <c r="I95" t="s" s="666">
+      <c r="G95" t="s" s="667">
+        <v>2</v>
+      </c>
+      <c r="H95" t="s" s="668">
+        <v>3</v>
+      </c>
+      <c r="I95" t="s" s="669">
         <v>4</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="667">
+      <c r="A96" t="s" s="670">
         <v>99</v>
       </c>
-      <c r="B96" s="668">
+      <c r="B96" s="671">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-252847.pdf")</f>
       </c>
-      <c r="C96" s="669">
+      <c r="C96" s="672">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-252847-xstream.xml")</f>
       </c>
-      <c r="D96" s="670">
+      <c r="D96" s="673">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-252847-xstream.xml")</f>
       </c>
       <c r="E96" t="s">
@@ -5262,27 +5271,27 @@
       <c r="F96" t="s">
         <v>1</v>
       </c>
-      <c r="G96" t="s" s="671">
-        <v>2</v>
-      </c>
-      <c r="H96" t="s" s="672">
-        <v>3</v>
-      </c>
-      <c r="I96" t="s" s="673">
+      <c r="G96" t="s" s="674">
+        <v>2</v>
+      </c>
+      <c r="H96" t="s" s="675">
+        <v>3</v>
+      </c>
+      <c r="I96" t="s" s="676">
         <v>4</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="674">
+      <c r="A97" t="s" s="677">
         <v>100</v>
       </c>
-      <c r="B97" s="675">
+      <c r="B97" s="678">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-255712.pdf")</f>
       </c>
-      <c r="C97" s="676">
+      <c r="C97" s="679">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-255712-xstream.xml")</f>
       </c>
-      <c r="D97" s="677">
+      <c r="D97" s="680">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-255712-xstream.xml")</f>
       </c>
       <c r="E97" t="s">
@@ -5291,27 +5300,27 @@
       <c r="F97" t="s">
         <v>1</v>
       </c>
-      <c r="G97" t="s" s="678">
-        <v>2</v>
-      </c>
-      <c r="H97" t="s" s="679">
-        <v>3</v>
-      </c>
-      <c r="I97" t="s" s="680">
+      <c r="G97" t="s" s="681">
+        <v>2</v>
+      </c>
+      <c r="H97" t="s" s="682">
+        <v>3</v>
+      </c>
+      <c r="I97" t="s" s="683">
         <v>4</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="681">
+      <c r="A98" t="s" s="684">
         <v>101</v>
       </c>
-      <c r="B98" s="682">
+      <c r="B98" s="685">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-256654.pdf")</f>
       </c>
-      <c r="C98" s="683">
+      <c r="C98" s="686">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-256654-xstream.xml")</f>
       </c>
-      <c r="D98" s="684">
+      <c r="D98" s="687">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-256654-xstream.xml")</f>
       </c>
       <c r="E98" t="s">
@@ -5320,27 +5329,27 @@
       <c r="F98" t="s">
         <v>1</v>
       </c>
-      <c r="G98" t="s" s="685">
-        <v>2</v>
-      </c>
-      <c r="H98" t="s" s="686">
-        <v>3</v>
-      </c>
-      <c r="I98" t="s" s="687">
+      <c r="G98" t="s" s="688">
+        <v>2</v>
+      </c>
+      <c r="H98" t="s" s="689">
+        <v>3</v>
+      </c>
+      <c r="I98" t="s" s="690">
         <v>4</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="688">
+      <c r="A99" t="s" s="691">
         <v>102</v>
       </c>
-      <c r="B99" s="689">
+      <c r="B99" s="692">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-257397.pdf")</f>
       </c>
-      <c r="C99" s="690">
+      <c r="C99" s="693">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-257397-xstream.xml")</f>
       </c>
-      <c r="D99" s="691">
+      <c r="D99" s="694">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-257397-xstream.xml")</f>
       </c>
       <c r="E99" t="s">
@@ -5349,27 +5358,27 @@
       <c r="F99" t="s">
         <v>1</v>
       </c>
-      <c r="G99" t="s" s="692">
-        <v>2</v>
-      </c>
-      <c r="H99" t="s" s="693">
-        <v>3</v>
-      </c>
-      <c r="I99" t="s" s="694">
+      <c r="G99" t="s" s="695">
+        <v>2</v>
+      </c>
+      <c r="H99" t="s" s="696">
+        <v>3</v>
+      </c>
+      <c r="I99" t="s" s="697">
         <v>4</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="695">
+      <c r="A100" t="s" s="698">
         <v>103</v>
       </c>
-      <c r="B100" s="696">
+      <c r="B100" s="699">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\groundtruth\TUW-257870.pdf")</f>
       </c>
-      <c r="C100" s="697">
+      <c r="C100" s="700">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\result\result-TUW-257870-xstream.xml")</f>
       </c>
-      <c r="D100" s="698">
+      <c r="D100" s="701">
         <f>HYPERLINK("D:\Java\git\MethodDemosGit\MethodDemos\output\extracted\pdfx\pdfx-TUW-257870-xstream.xml")</f>
       </c>
       <c r="E100" t="s">
@@ -5378,13 +5387,13 @@
       <c r="F100" t="s">
         <v>1</v>
       </c>
-      <c r="G100" t="s" s="699">
-        <v>2</v>
-      </c>
-      <c r="H100" t="s" s="700">
-        <v>3</v>
-      </c>
-      <c r="I100" t="s" s="701">
+      <c r="G100" t="s" s="702">
+        <v>2</v>
+      </c>
+      <c r="H100" t="s" s="703">
+        <v>3</v>
+      </c>
+      <c r="I100" t="s" s="704">
         <v>4</v>
       </c>
     </row>

--- a/MethodDemos/output/statistics/pdfx-PAGE_FROM.xlsx
+++ b/MethodDemos/output/statistics/pdfx-PAGE_FROM.xlsx
@@ -668,204 +668,354 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="top"/>
     </xf>
@@ -1010,367 +1160,217 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2490,7 +2490,7 @@
     <col min="2" max="2" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.2734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.49609375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.35546875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="19.921875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="14.31640625" customWidth="true" bestFit="true"/>
